--- a/src/b4d_pbi_executive_dashboard/src/b4d_funnel_target.xlsx
+++ b/src/b4d_pbi_executive_dashboard/src/b4d_funnel_target.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\b4d\projects\b4d_analytics\src\b4d_pbi_executive_dashboard\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3BC1B3-5542-4866-B9E0-F9EA5C09CF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FF7F60-8FD0-474E-98D2-253398548BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="4410" windowWidth="19005" windowHeight="9585" xr2:uid="{ABF07608-F5A2-4B83-8CBF-0652229C2C87}"/>
+    <workbookView xWindow="8955" yWindow="7905" windowWidth="12255" windowHeight="9585" xr2:uid="{E85770F7-B352-4EEA-881D-0B382B632507}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>date</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="9">
   <si>
     <t>target_mrc</t>
   </si>
@@ -38,14 +35,29 @@
   <si>
     <t>target_trx</t>
   </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>1 - Lead Calificado</t>
+  </si>
+  <si>
+    <t>2 - Propuesta</t>
+  </si>
+  <si>
+    <t>3 - Negociación</t>
+  </si>
+  <si>
+    <t>4 - Cerrado</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -55,8 +67,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,17 +90,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Millares 2" xfId="1" xr:uid="{AB13718F-3435-4BCC-AD15-875167A21667}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -401,198 +410,641 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27AC39BC-90D6-47AF-B3A0-2E714DC44E08}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4DA04E-0C26-47B4-8E95-56DEE41EA96D}">
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45658</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>83606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>50164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
         <v>8361</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D5" s="2">
         <v>15603</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E5" s="2">
         <v>137145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>45689</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>100327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>83606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>50164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
         <v>8361</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D9" s="2">
         <v>15603</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E9" s="2">
         <v>137145</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>45717</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2">
+        <v>100327</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>83606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>50164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2">
         <v>8361</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D13" s="2">
         <v>15603</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E13" s="2">
         <v>137145</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>45748</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>100327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>83606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>50164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
         <v>8361</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D17" s="2">
         <v>15603</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E17" s="2">
         <v>137145</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>45778</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2">
+        <v>100327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>83606</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>50164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2">
         <v>8361</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D21" s="2">
         <v>15603</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E21" s="2">
         <v>137145</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>45809</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>100327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="2">
+        <v>83606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <v>50164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2">
         <v>8361</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D25" s="2">
         <v>15603</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E25" s="2">
         <v>137145</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>45839</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>169871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
+        <v>141559</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>84935</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2">
         <v>14156</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D29" s="2">
         <v>18963</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E29" s="2">
         <v>195679</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>45870</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>169871</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2">
+        <v>141559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2">
+        <v>84935</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2">
         <v>14156</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D33" s="2">
         <v>18963</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E33" s="2">
         <v>195679</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>45901</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2">
+        <v>169871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="2">
+        <v>141559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>84935</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2">
         <v>14156</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D37" s="2">
         <v>18963</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E37" s="2">
         <v>195679</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>45931</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>169871</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>141559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>84935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45931</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="2">
         <v>14156</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D41" s="2">
         <v>18963</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E41" s="2">
         <v>195679</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>45962</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>169871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2">
+        <v>141559</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>84935</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45962</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2">
         <v>14156</v>
       </c>
-      <c r="C12" s="2">
+      <c r="D45" s="2">
         <v>18963</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E45" s="2">
         <v>195679</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>45992</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2">
+        <v>169871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2">
+        <v>141559</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2">
+        <v>84935</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="2">
         <v>14156</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D49" s="2">
         <v>18963</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E49" s="2">
         <v>195679</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>